--- a/config_8.17/activity_exchange_server.xlsx
+++ b/config_8.17/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2411,9 +2411,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4327,10 +4327,10 @@
         <v>83</v>
       </c>
       <c r="D60" s="61">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="E60" s="61">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
       <c r="H60" s="58" t="s">
         <v>39</v>
@@ -4361,7 +4361,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
